--- a/BalanceSheet/AMGN_bal.xlsx
+++ b/BalanceSheet/AMGN_bal.xlsx
@@ -4182,7 +4182,7 @@
         <v>23836000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>21520000000.0</v>
+        <v>20992000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>8938000000.0</v>
@@ -4309,7 +4309,7 @@
         <v>31848000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>30431000000.0</v>
+        <v>29903000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>29791000000.0</v>
